--- a/server/식물정보.xlsx
+++ b/server/식물정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhy59\Documents\GitHub\DataVase_Project\server\식물정보\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhy59\Documents\GitHub\DataVase_Project\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB699E4-B401-4315-84CC-9F2AB43EE815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE9B21-9240-483E-900D-B4A478F40655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="756" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,26 @@
   </si>
   <si>
     <t>스투키( Stuckyi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유칼립투스( Eucalyptus)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 식물이 잘 자라는 조건만 맞추면 자라는 속도가 빠르다.
+&gt; 햇빛 잘 드는 곳에서 키우는 것이 좋다.
+&gt; 통풍이 잘 되고 물 빠짐이 좋은 흙에 심는 것이 좋다.
+&gt; 봄, 겨울에 너무 건조하면 잎이 마르기에 자주 분무를 해주어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄,가을 겉흙이 살짝 말랐을 때 충분히 관수
+여름,겨울 물마름이 오기 전에 한번씩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,9 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,20 +737,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.09765625" customWidth="1"/>
     <col min="3" max="10" width="30.59765625" customWidth="1"/>
+    <col min="11" max="11" width="35.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,11 +776,14 @@
       <c r="I2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" ht="177" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="208.8" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -772,23 +796,26 @@
       <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="K3" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -809,9 +836,10 @@
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -836,37 +864,43 @@
       <c r="I5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="K5" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" s="7" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11" s="7" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>32</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/server/식물정보.xlsx
+++ b/server/식물정보.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhy59\Documents\GitHub\DataVase_Project\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\DataVase_Project\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE9B21-9240-483E-900D-B4A478F40655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="121">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,12 +214,335 @@
 여름,겨울 물마름이 오기 전에 한번씩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>유칼립투스</t>
+  </si>
+  <si>
+    <t>고목나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스투키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튤립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앵초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히야신스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물망초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나리아재비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alocasia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아카시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용설란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마란타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉숭화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베고니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래지치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당개지치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초롱꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스테라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나한송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄고사리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌레잡이제비꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄고사리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나리아재비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산세베리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글록시니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초피나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진달래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라우카리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해바라기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임성제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당개지치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고무나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용설란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아라우카리아(사이즈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마란타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김규리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나리아재비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진달래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해바라기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alocasia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스테라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,16 +558,37 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -347,13 +690,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +809,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,23 +942,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -544,23 +977,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -736,11 +1152,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -911,26 +1327,815 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" activeCellId="4" sqref="B17 B20 B24 B26 B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="7"/>
+    <col min="2" max="2" width="40.09765625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B32" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.09765625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23" style="7" customWidth="1"/>
+    <col min="4" max="5" width="8.796875" style="7"/>
+    <col min="6" max="6" width="12.69921875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.296875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="26"/>
+      <c r="C4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="26"/>
+      <c r="C5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="26"/>
+      <c r="C6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="26"/>
+      <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="26"/>
+      <c r="C8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="26"/>
+      <c r="C9" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="26"/>
+      <c r="C10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="26"/>
+      <c r="C11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
+      <c r="C14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="26"/>
+      <c r="C20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="26"/>
+      <c r="C25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
+      <c r="C26" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="26"/>
+      <c r="C31" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="26"/>
+      <c r="C32" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="26"/>
+      <c r="C33" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="26"/>
+      <c r="C34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="26"/>
+      <c r="C35" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="26"/>
+      <c r="C36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="27"/>
+      <c r="C37" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="B27:B37"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
